--- a/outputs/january.xlsx
+++ b/outputs/january.xlsx
@@ -700,7 +700,7 @@
         <v>1666.89</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>1.89</v>
+        <v>0.0189</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>88844.00999999999</v>
@@ -731,7 +731,7 @@
         <v>4049.52</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>4.5</v>
+        <v>0.045</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91490</v>
@@ -793,7 +793,7 @@
         <v>-2271.46</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-2.43</v>
+        <v>-0.0243</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>93773.87</v>
@@ -828,14 +828,18 @@
       <c r="D3" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>12/31/25</t>
@@ -855,14 +859,18 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>98.48999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -882,14 +890,18 @@
       <c r="Z3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>98.86</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -909,14 +921,18 @@
       <c r="AK3" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>98.63</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.16</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -936,14 +952,18 @@
       <c r="AV3" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.5</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -1905,7 +1925,7 @@
         <v>-4.777</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-6.27</v>
+        <v>-0.06269999999999999</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>76.24299999999999</v>
@@ -1936,7 +1956,7 @@
         <v>1.33</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>1.86</v>
+        <v>0.0186</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>71.45399999999999</v>
@@ -1967,7 +1987,7 @@
         <v>3.82</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>5.25</v>
+        <v>0.0525</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>72.839</v>
@@ -1998,7 +2018,7 @@
         <v>4.658</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>6.08</v>
+        <v>0.0608</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>76.61499999999999</v>
@@ -2029,7 +2049,7 @@
         <v>-3.076</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-3.78</v>
+        <v>-0.0378</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>81.274</v>
@@ -2124,7 +2144,7 @@
         <v>116.63</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>2.69</v>
+        <v>0.0269</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>4333.91</v>
@@ -2155,7 +2175,7 @@
         <v>45.87</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>1.03</v>
+        <v>0.0103</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4448.99</v>
@@ -3267,7 +3287,7 @@
         <v>3113.9</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>3.42</v>
+        <v>0.0342</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91235.38</v>
@@ -3298,7 +3318,7 @@
         <v>3352.26</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>3.56</v>
+        <v>0.0356</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>95374.23</v>
@@ -3333,14 +3353,18 @@
       <c r="D3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.98</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.68000000000001</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3360,14 +3384,18 @@
       <c r="O3" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="P3" s="1" t="n"/>
+      <c r="P3" s="1" t="n">
+        <v/>
+      </c>
       <c r="Q3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3387,14 +3415,18 @@
       <c r="Z3" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3423,7 +3455,9 @@
       <c r="AN3" s="1" t="n">
         <v>98.93000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3442,7 +3476,9 @@
       <c r="C4" s="1" t="n">
         <v>-4e-05</v>
       </c>
-      <c r="D4" s="2" t="n"/>
+      <c r="D4" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="E4" s="1" t="n">
         <v>0.86755</v>
       </c>
@@ -3625,8 +3661,12 @@
       <c r="X5" s="1" t="n">
         <v>0.5352</v>
       </c>
-      <c r="Y5" s="1" t="n"/>
-      <c r="Z5" s="2" t="n"/>
+      <c r="Y5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="n">
+        <v>0</v>
+      </c>
       <c r="AA5" s="1" t="n">
         <v>0.5352</v>
       </c>
@@ -4193,7 +4233,7 @@
         <v>-1.213</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.55</v>
+        <v>-0.0155</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>78.197</v>
@@ -4224,7 +4264,7 @@
         <v>2.939</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>3.82</v>
+        <v>0.0382</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>76.983</v>
@@ -4255,7 +4295,7 @@
         <v>1.775</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>2.08</v>
+        <v>0.0208</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>85.166</v>
@@ -4286,7 +4326,7 @@
         <v>6.327</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>7.28</v>
+        <v>0.0728</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>86.941</v>
@@ -5321,7 +5361,7 @@
         <v>-1866.37</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.92</v>
+        <v>-0.0192</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>96922.81</v>
@@ -5383,7 +5423,7 @@
         <v>-2513.93</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-2.63</v>
+        <v>-0.0263</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>93687.14</v>
@@ -5414,7 +5454,7 @@
         <v>-3488.48</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-3.75</v>
+        <v>-0.0375</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>92611.52</v>
@@ -5480,14 +5520,18 @@
       <c r="D3" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.09</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5538,14 +5582,18 @@
       <c r="Z3" s="2" t="n">
         <v>-0.36</v>
       </c>
-      <c r="AA3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AB3" s="1" t="n">
         <v>99.47</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5565,14 +5613,18 @@
       <c r="AK3" s="2" t="n">
         <v>-0.85</v>
       </c>
-      <c r="AL3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AM3" s="1" t="n">
         <v>99.14</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5592,14 +5644,18 @@
       <c r="AV3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="AW3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n">
+        <v/>
+      </c>
       <c r="AX3" s="1" t="n">
         <v>98.87</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.38</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5900,7 +5956,7 @@
         <v>0.0059</v>
       </c>
       <c r="AV5" s="2" t="n">
-        <v>1.11</v>
+        <v>0.0111</v>
       </c>
       <c r="AW5" s="1" t="n">
         <v>0.5321</v>
@@ -6592,7 +6648,7 @@
         <v>-2.438</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-2.64</v>
+        <v>-0.0264</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>92.393</v>
@@ -6623,7 +6679,7 @@
         <v>4.202</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>4.66</v>
+        <v>0.0466</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>90.21899999999999</v>
@@ -6685,7 +6741,7 @@
         <v>-1.475</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-1.56</v>
+        <v>-0.0156</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>94.574</v>
@@ -6780,7 +6836,7 @@
         <v>74.51000000000001</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>1.62</v>
+        <v>0.0162</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>4599.09</v>
@@ -6811,7 +6867,7 @@
         <v>92.65000000000001</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>1.98</v>
+        <v>0.0198</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4670.89</v>
@@ -6842,7 +6898,7 @@
         <v>67.67</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>1.42</v>
+        <v>0.0142</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4763.53</v>
@@ -7906,7 +7962,7 @@
         <v>-1023.11</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-1.13</v>
+        <v>-0.0113</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>89476.27</v>
@@ -7968,7 +8024,7 @@
         <v>-1254.62</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-1.4</v>
+        <v>-0.014</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>86655.13</v>
@@ -7999,7 +8055,7 @@
         <v>949.76</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>1.08</v>
+        <v>0.0108</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>88399.81</v>
@@ -8065,14 +8121,18 @@
       <c r="D3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="E3" s="1" t="n"/>
+      <c r="E3" s="1" t="n">
+        <v/>
+      </c>
       <c r="F3" s="1" t="n">
         <v>98.83</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.28</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8101,7 +8161,9 @@
       <c r="R3" s="1" t="n">
         <v>97.43000000000001</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -8130,7 +8192,9 @@
       <c r="AC3" s="1" t="n">
         <v>96.81</v>
       </c>
-      <c r="AD3" s="3" t="n"/>
+      <c r="AD3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>01/27/26</t>
@@ -8148,7 +8212,7 @@
         <v>-1.28</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>-1.32</v>
+        <v>-0.0132</v>
       </c>
       <c r="AL3" s="1" t="n">
         <v>97.05</v>
@@ -8159,7 +8223,9 @@
       <c r="AN3" s="1" t="n">
         <v>95.55</v>
       </c>
-      <c r="AO3" s="3" t="n"/>
+      <c r="AO3" s="3" t="n">
+        <v/>
+      </c>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8188,7 +8254,9 @@
       <c r="AY3" s="1" t="n">
         <v>95.86</v>
       </c>
-      <c r="AZ3" s="3" t="n"/>
+      <c r="AZ3" s="3" t="n">
+        <v/>
+      </c>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8489,7 +8557,7 @@
         <v>0.0072</v>
       </c>
       <c r="AV5" s="2" t="n">
-        <v>1.35</v>
+        <v>0.0135</v>
       </c>
       <c r="AW5" s="1" t="n">
         <v>0.5338000000000001</v>
@@ -9150,7 +9218,7 @@
         <v>3.084</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>3.31</v>
+        <v>0.0331</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>93.09999999999999</v>
@@ -9181,7 +9249,7 @@
         <v>7.123</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>7.41</v>
+        <v>0.0741</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>96.184</v>
@@ -9243,7 +9311,7 @@
         <v>8.343</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>8.039999999999999</v>
+        <v>0.08039999999999999</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>103.749</v>
@@ -9274,7 +9342,7 @@
         <v>4.768</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>4.25</v>
+        <v>0.0425</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>112.096</v>
@@ -9307,7 +9375,7 @@
         <v>105.13</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>2.18</v>
+        <v>0.0218</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4831.22</v>
@@ -9338,7 +9406,7 @@
         <v>52.83</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4936.35</v>
@@ -9400,7 +9468,7 @@
         <v>173.72</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>3.47</v>
+        <v>0.0347</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>5007.4</v>
@@ -9431,7 +9499,7 @@
         <v>236.63</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>4.57</v>
+        <v>0.0457</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>5181.19</v>
@@ -9557,7 +9625,7 @@
         <v>-0.0061</v>
       </c>
       <c r="AK12" s="2" t="n">
-        <v>-1.08</v>
+        <v>-0.0108</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>0.5668</v>
@@ -9588,7 +9656,7 @@
         <v>0.006</v>
       </c>
       <c r="AV12" s="2" t="n">
-        <v>1.07</v>
+        <v>0.0107</v>
       </c>
       <c r="AW12" s="1" t="n">
         <v>0.5607</v>
@@ -9809,7 +9877,7 @@
         <v>-2.715</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>-1.71</v>
+        <v>-0.0171</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>158.426</v>
@@ -9871,7 +9939,7 @@
         <v>-2</v>
       </c>
       <c r="AK14" s="2" t="n">
-        <v>-1.3</v>
+        <v>-0.013</v>
       </c>
       <c r="AL14" s="1" t="n">
         <v>154.204</v>
@@ -10123,7 +10191,7 @@
         <v>-0.00874</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-1.11</v>
+        <v>-0.0111</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>0.78904</v>
@@ -10185,7 +10253,7 @@
         <v>-0.01569</v>
       </c>
       <c r="AK16" s="2" t="n">
-        <v>-2.02</v>
+        <v>-0.0202</v>
       </c>
       <c r="AL16" s="1" t="n">
         <v>0.77696</v>
@@ -10360,7 +10428,7 @@
         <v>-4877.82</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-5.45</v>
+        <v>-0.0545</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>89280.48</v>
@@ -10435,7 +10503,9 @@
       <c r="G3" s="1" t="n">
         <v>96.02</v>
       </c>
-      <c r="H3" s="3" t="n"/>
+      <c r="H3" s="3" t="n">
+        <v/>
+      </c>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -10464,7 +10534,9 @@
       <c r="R3" s="1" t="n">
         <v>96.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n"/>
+      <c r="S3" s="3" t="n">
+        <v/>
+      </c>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -10868,7 +10940,7 @@
         <v>-1.422</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-1.22</v>
+        <v>-0.0122</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>116.859</v>
@@ -10899,7 +10971,7 @@
         <v>-30.142</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-26.11</v>
+        <v>-0.2611</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>115.435</v>
@@ -10963,7 +11035,7 @@
         <v>-478.69</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-8.91</v>
+        <v>-0.0891</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>5371.08</v>
@@ -11155,7 +11227,7 @@
         <v>1.678</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>1.1</v>
+        <v>0.011</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>153.096</v>
@@ -11283,7 +11355,7 @@
         <v>0.00882</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>1.15</v>
+        <v>0.0115</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>0.76423</v>

--- a/outputs/january.xlsx
+++ b/outputs/january.xlsx
@@ -20,7 +20,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00&quot;%&quot;"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -53,7 +55,7 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -700,7 +702,7 @@
         <v>1666.89</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>0.0189</v>
+        <v>1.89</v>
       </c>
       <c r="P2" s="1" t="n">
         <v>88844.00999999999</v>
@@ -731,7 +733,7 @@
         <v>4049.52</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.045</v>
+        <v>4.5</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91490</v>
@@ -793,7 +795,7 @@
         <v>-2271.46</v>
       </c>
       <c r="AV2" s="2" t="n">
-        <v>-0.0243</v>
+        <v>-2.43</v>
       </c>
       <c r="AW2" s="1" t="n">
         <v>93773.87</v>
@@ -1925,7 +1927,7 @@
         <v>-4.777</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.06269999999999999</v>
+        <v>-6.27</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>76.24299999999999</v>
@@ -1956,7 +1958,7 @@
         <v>1.33</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0186</v>
+        <v>1.86</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>71.45399999999999</v>
@@ -1987,7 +1989,7 @@
         <v>3.82</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0525</v>
+        <v>5.25</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>72.839</v>
@@ -2018,7 +2020,7 @@
         <v>4.658</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>0.0608</v>
+        <v>6.08</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>76.61499999999999</v>
@@ -2049,7 +2051,7 @@
         <v>-3.076</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-0.0378</v>
+        <v>-3.78</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>81.274</v>
@@ -2144,7 +2146,7 @@
         <v>116.63</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.0269</v>
+        <v>2.69</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>4333.91</v>
@@ -2175,7 +2177,7 @@
         <v>45.87</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.0103</v>
+        <v>1.03</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4448.99</v>
@@ -3287,7 +3289,7 @@
         <v>3113.9</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>0.0342</v>
+        <v>3.42</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>91235.38</v>
@@ -3318,7 +3320,7 @@
         <v>3352.26</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>0.0356</v>
+        <v>3.56</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>95374.23</v>
@@ -4233,7 +4235,7 @@
         <v>-1.213</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.0155</v>
+        <v>-1.55</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>78.197</v>
@@ -4264,7 +4266,7 @@
         <v>2.939</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0382</v>
+        <v>3.82</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>76.983</v>
@@ -4295,7 +4297,7 @@
         <v>1.775</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0208</v>
+        <v>2.08</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>85.166</v>
@@ -4326,7 +4328,7 @@
         <v>6.327</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>0.0728</v>
+        <v>7.28</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>86.941</v>
@@ -5361,7 +5363,7 @@
         <v>-1866.37</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0192</v>
+        <v>-1.92</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>96922.81</v>
@@ -5423,7 +5425,7 @@
         <v>-2513.93</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.0263</v>
+        <v>-2.63</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>93687.14</v>
@@ -5454,7 +5456,7 @@
         <v>-3488.48</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>-0.0375</v>
+        <v>-3.75</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>92611.52</v>
@@ -5956,7 +5958,7 @@
         <v>0.0059</v>
       </c>
       <c r="AV5" s="2" t="n">
-        <v>0.0111</v>
+        <v>1.11</v>
       </c>
       <c r="AW5" s="1" t="n">
         <v>0.5321</v>
@@ -6648,7 +6650,7 @@
         <v>-2.438</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-0.0264</v>
+        <v>-2.64</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>92.393</v>
@@ -6679,7 +6681,7 @@
         <v>4.202</v>
       </c>
       <c r="Z10" s="2" t="n">
-        <v>0.0466</v>
+        <v>4.66</v>
       </c>
       <c r="AA10" s="1" t="n">
         <v>90.21899999999999</v>
@@ -6741,7 +6743,7 @@
         <v>-1.475</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>-0.0156</v>
+        <v>-1.56</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>94.574</v>
@@ -6836,7 +6838,7 @@
         <v>74.51000000000001</v>
       </c>
       <c r="Z11" s="2" t="n">
-        <v>0.0162</v>
+        <v>1.62</v>
       </c>
       <c r="AA11" s="1" t="n">
         <v>4599.09</v>
@@ -6867,7 +6869,7 @@
         <v>92.65000000000001</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.0198</v>
+        <v>1.98</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>4670.89</v>
@@ -6898,7 +6900,7 @@
         <v>67.67</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>0.0142</v>
+        <v>1.42</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>4763.53</v>
@@ -7962,7 +7964,7 @@
         <v>-1023.11</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0113</v>
+        <v>-1.13</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>89476.27</v>
@@ -8024,7 +8026,7 @@
         <v>-1254.62</v>
       </c>
       <c r="Z2" s="2" t="n">
-        <v>-0.014</v>
+        <v>-1.4</v>
       </c>
       <c r="AA2" s="1" t="n">
         <v>86655.13</v>
@@ -8055,7 +8057,7 @@
         <v>949.76</v>
       </c>
       <c r="AK2" s="2" t="n">
-        <v>0.0108</v>
+        <v>1.08</v>
       </c>
       <c r="AL2" s="1" t="n">
         <v>88399.81</v>
@@ -8212,7 +8214,7 @@
         <v>-1.28</v>
       </c>
       <c r="AK3" s="2" t="n">
-        <v>-0.0132</v>
+        <v>-1.32</v>
       </c>
       <c r="AL3" s="1" t="n">
         <v>97.05</v>
@@ -8557,7 +8559,7 @@
         <v>0.0072</v>
       </c>
       <c r="AV5" s="2" t="n">
-        <v>0.0135</v>
+        <v>1.35</v>
       </c>
       <c r="AW5" s="1" t="n">
         <v>0.5338000000000001</v>
@@ -9218,7 +9220,7 @@
         <v>3.084</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.0331</v>
+        <v>3.31</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>93.09999999999999</v>
@@ -9249,7 +9251,7 @@
         <v>7.123</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0.0741</v>
+        <v>7.41</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>96.184</v>
@@ -9311,7 +9313,7 @@
         <v>8.343</v>
       </c>
       <c r="AK10" s="2" t="n">
-        <v>0.08039999999999999</v>
+        <v>8.039999999999999</v>
       </c>
       <c r="AL10" s="1" t="n">
         <v>103.749</v>
@@ -9342,7 +9344,7 @@
         <v>4.768</v>
       </c>
       <c r="AV10" s="2" t="n">
-        <v>0.0425</v>
+        <v>4.25</v>
       </c>
       <c r="AW10" s="1" t="n">
         <v>112.096</v>
@@ -9375,7 +9377,7 @@
         <v>105.13</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.0218</v>
+        <v>2.18</v>
       </c>
       <c r="E11" s="1" t="n">
         <v>4831.22</v>
@@ -9406,7 +9408,7 @@
         <v>52.83</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>0.0107</v>
+        <v>1.07</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>4936.35</v>
@@ -9468,7 +9470,7 @@
         <v>173.72</v>
       </c>
       <c r="AK11" s="2" t="n">
-        <v>0.0347</v>
+        <v>3.47</v>
       </c>
       <c r="AL11" s="1" t="n">
         <v>5007.4</v>
@@ -9499,7 +9501,7 @@
         <v>236.63</v>
       </c>
       <c r="AV11" s="2" t="n">
-        <v>0.0457</v>
+        <v>4.57</v>
       </c>
       <c r="AW11" s="1" t="n">
         <v>5181.19</v>
@@ -9625,7 +9627,7 @@
         <v>-0.0061</v>
       </c>
       <c r="AK12" s="2" t="n">
-        <v>-0.0108</v>
+        <v>-1.08</v>
       </c>
       <c r="AL12" s="1" t="n">
         <v>0.5668</v>
@@ -9656,7 +9658,7 @@
         <v>0.006</v>
       </c>
       <c r="AV12" s="2" t="n">
-        <v>0.0107</v>
+        <v>1.07</v>
       </c>
       <c r="AW12" s="1" t="n">
         <v>0.5607</v>
@@ -9877,7 +9879,7 @@
         <v>-2.715</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>-0.0171</v>
+        <v>-1.71</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>158.426</v>
@@ -9939,7 +9941,7 @@
         <v>-2</v>
       </c>
       <c r="AK14" s="2" t="n">
-        <v>-0.013</v>
+        <v>-1.3</v>
       </c>
       <c r="AL14" s="1" t="n">
         <v>154.204</v>
@@ -10191,7 +10193,7 @@
         <v>-0.00874</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>-0.0111</v>
+        <v>-1.11</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>0.78904</v>
@@ -10253,7 +10255,7 @@
         <v>-0.01569</v>
       </c>
       <c r="AK16" s="2" t="n">
-        <v>-0.0202</v>
+        <v>-2.02</v>
       </c>
       <c r="AL16" s="1" t="n">
         <v>0.77696</v>
@@ -10428,7 +10430,7 @@
         <v>-4877.82</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>-0.0545</v>
+        <v>-5.45</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>89280.48</v>
@@ -10940,7 +10942,7 @@
         <v>-1.422</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>-0.0122</v>
+        <v>-1.22</v>
       </c>
       <c r="E10" s="1" t="n">
         <v>116.859</v>
@@ -10971,7 +10973,7 @@
         <v>-30.142</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>-0.2611</v>
+        <v>-26.11</v>
       </c>
       <c r="P10" s="1" t="n">
         <v>115.435</v>
@@ -11035,7 +11037,7 @@
         <v>-478.69</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>-0.0891</v>
+        <v>-8.91</v>
       </c>
       <c r="P11" s="1" t="n">
         <v>5371.08</v>
@@ -11227,7 +11229,7 @@
         <v>1.678</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0.011</v>
+        <v>1.1</v>
       </c>
       <c r="P14" s="1" t="n">
         <v>153.096</v>
@@ -11355,7 +11357,7 @@
         <v>0.00882</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0.0115</v>
+        <v>1.15</v>
       </c>
       <c r="P16" s="1" t="n">
         <v>0.76423</v>

--- a/outputs/january.xlsx
+++ b/outputs/january.xlsx
@@ -830,18 +830,14 @@
       <c r="D3" s="2" t="n">
         <v>0.08</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.5</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.18000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>12/31/25</t>
@@ -861,18 +857,14 @@
       <c r="O3" s="2" t="n">
         <v>0.11</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>98.48999999999999</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.14</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -892,18 +884,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.09</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>98.86</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -923,18 +911,14 @@
       <c r="AK3" s="2" t="n">
         <v>0.34</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>98.63</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.16</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -954,18 +938,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.14</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.75</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.5</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3355,18 +3335,14 @@
       <c r="D3" s="2" t="n">
         <v>0.18</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.98</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.68000000000001</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:39 ET</t>
@@ -3386,18 +3362,14 @@
       <c r="O3" s="2" t="n">
         <v>0.21</v>
       </c>
-      <c r="P3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="P3" s="1" t="n"/>
       <c r="Q3" s="1" t="n">
         <v>99.26000000000001</v>
       </c>
       <c r="R3" s="1" t="n">
         <v>98.90000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -3417,18 +3389,14 @@
       <c r="Z3" s="2" t="n">
         <v>0.32</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.23</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>98.84999999999999</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -3457,9 +3425,7 @@
       <c r="AN3" s="1" t="n">
         <v>98.93000000000001</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5522,18 +5488,14 @@
       <c r="D3" s="2" t="n">
         <v>0.3</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>99.48999999999999</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>99.09</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5584,18 +5546,14 @@
       <c r="Z3" s="2" t="n">
         <v>-0.36</v>
       </c>
-      <c r="AA3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AA3" s="1" t="n"/>
       <c r="AB3" s="1" t="n">
         <v>99.47</v>
       </c>
       <c r="AC3" s="1" t="n">
         <v>99.01000000000001</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5615,18 +5573,14 @@
       <c r="AK3" s="2" t="n">
         <v>-0.85</v>
       </c>
-      <c r="AL3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AL3" s="1" t="n"/>
       <c r="AM3" s="1" t="n">
         <v>99.14</v>
       </c>
       <c r="AN3" s="1" t="n">
         <v>98.25</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -5646,18 +5600,14 @@
       <c r="AV3" s="2" t="n">
         <v>0.15</v>
       </c>
-      <c r="AW3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="AW3" s="1" t="n"/>
       <c r="AX3" s="1" t="n">
         <v>98.87</v>
       </c>
       <c r="AY3" s="1" t="n">
         <v>98.38</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8123,18 +8073,14 @@
       <c r="D3" s="2" t="n">
         <v>-0.49</v>
       </c>
-      <c r="E3" s="1" t="n">
-        <v/>
-      </c>
+      <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n">
         <v>98.83</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>98.28</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8163,9 +8109,7 @@
       <c r="R3" s="1" t="n">
         <v>97.43000000000001</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
@@ -8194,9 +8138,7 @@
       <c r="AC3" s="1" t="n">
         <v>96.81</v>
       </c>
-      <c r="AD3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AD3" s="3" t="n"/>
       <c r="AE3" s="4" t="inlineStr">
         <is>
           <t>01/27/26</t>
@@ -8225,9 +8167,7 @@
       <c r="AN3" s="1" t="n">
         <v>95.55</v>
       </c>
-      <c r="AO3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AO3" s="3" t="n"/>
       <c r="AP3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -8256,9 +8196,7 @@
       <c r="AY3" s="1" t="n">
         <v>95.86</v>
       </c>
-      <c r="AZ3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="AZ3" s="3" t="n"/>
       <c r="BA3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -10505,9 +10443,7 @@
       <c r="G3" s="1" t="n">
         <v>96.02</v>
       </c>
-      <c r="H3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="H3" s="3" t="n"/>
       <c r="I3" s="4" t="inlineStr">
         <is>
           <t>17:38 ET</t>
@@ -10536,9 +10472,7 @@
       <c r="R3" s="1" t="n">
         <v>96.31999999999999</v>
       </c>
-      <c r="S3" s="3" t="n">
-        <v/>
-      </c>
+      <c r="S3" s="3" t="n"/>
       <c r="T3" s="4" t="inlineStr">
         <is>
           <t>16:59 ET</t>
